--- a/Datos/Bases JASP/Reset_Ttest_x.xlsx
+++ b/Datos/Bases JASP/Reset_Ttest_x.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Sesion</t>
   </si>
@@ -81,6 +81,78 @@
   </si>
   <si>
     <t>DAP_5</t>
+  </si>
+  <si>
+    <t>aDO1_4</t>
+  </si>
+  <si>
+    <t>aDO1_5</t>
+  </si>
+  <si>
+    <t>aDOP_4</t>
+  </si>
+  <si>
+    <t>aDOP_5</t>
+  </si>
+  <si>
+    <t>aDA_4</t>
+  </si>
+  <si>
+    <t>aDA_5</t>
+  </si>
+  <si>
+    <t>aDAP_4</t>
+  </si>
+  <si>
+    <t>aDAP_5</t>
+  </si>
+  <si>
+    <t>rDO1_4</t>
+  </si>
+  <si>
+    <t>rDO1_5</t>
+  </si>
+  <si>
+    <t>rDOP_4</t>
+  </si>
+  <si>
+    <t>rDOP_5</t>
+  </si>
+  <si>
+    <t>rDA_4</t>
+  </si>
+  <si>
+    <t>rDA_5</t>
+  </si>
+  <si>
+    <t>rDAP_4</t>
+  </si>
+  <si>
+    <t>rDAP_5</t>
+  </si>
+  <si>
+    <t>nDO1_4</t>
+  </si>
+  <si>
+    <t>nDO1_5</t>
+  </si>
+  <si>
+    <t>nDOP_4</t>
+  </si>
+  <si>
+    <t>nDOP_5</t>
+  </si>
+  <si>
+    <t>nDA_4</t>
+  </si>
+  <si>
+    <t>nDA_5</t>
+  </si>
+  <si>
+    <t>nDAP_4</t>
+  </si>
+  <si>
+    <t>nDAP_5</t>
   </si>
 </sst>
 </file>
@@ -96,12 +168,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -116,8 +200,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -398,15 +484,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S10"/>
+  <dimension ref="A1:AQ10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="X15" sqref="X15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="28" max="35" width="11.42578125" style="1"/>
+    <col min="36" max="43" width="11.42578125" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -464,8 +554,80 @@
       <c r="S1" t="s">
         <v>18</v>
       </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -523,8 +685,88 @@
       <c r="S2">
         <v>-0.111111</v>
       </c>
+      <c r="T2">
+        <f>ABS(L2)</f>
+        <v>18</v>
+      </c>
+      <c r="U2">
+        <f t="shared" ref="U2:AA10" si="0">ABS(M2)</f>
+        <v>17</v>
+      </c>
+      <c r="V2">
+        <f t="shared" si="0"/>
+        <v>9.6666600000000003</v>
+      </c>
+      <c r="W2">
+        <f t="shared" si="0"/>
+        <v>3.6666599999999998</v>
+      </c>
+      <c r="X2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="Y2">
+        <f t="shared" si="0"/>
+        <v>11.33333</v>
+      </c>
+      <c r="Z2">
+        <f t="shared" si="0"/>
+        <v>5.6666600000000003</v>
+      </c>
+      <c r="AA2">
+        <f t="shared" si="0"/>
+        <v>0.111111</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>-1.125</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>-0.54</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>-0.81699999999999995</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>-0.14799999999999999</v>
+      </c>
+      <c r="AF2" s="1">
+        <v>-0.92300000000000004</v>
+      </c>
+      <c r="AG2" s="1">
+        <v>-0.39500000000000002</v>
+      </c>
+      <c r="AH2" s="1">
+        <v>-0.57599999999999996</v>
+      </c>
+      <c r="AI2" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AJ2" s="2">
+        <v>1.4590000000000001</v>
+      </c>
+      <c r="AK2" s="2">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="AL2" s="2">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="AM2" s="2">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="AN2" s="2">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="AO2" s="2">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="AP2" s="2">
+        <v>0.45900000000000002</v>
+      </c>
+      <c r="AQ2" s="2">
+        <v>-2E-3</v>
+      </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -582,8 +824,88 @@
       <c r="S3">
         <v>-1.66666</v>
       </c>
+      <c r="T3">
+        <f t="shared" ref="T3:T10" si="1">ABS(L3)</f>
+        <v>6</v>
+      </c>
+      <c r="U3">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="V3">
+        <f t="shared" si="0"/>
+        <v>5.3333300000000001</v>
+      </c>
+      <c r="W3">
+        <f t="shared" si="0"/>
+        <v>1.6666669999999999</v>
+      </c>
+      <c r="X3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="Y3">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="Z3">
+        <f t="shared" si="0"/>
+        <v>6.6665999999999999</v>
+      </c>
+      <c r="AA3">
+        <f t="shared" si="0"/>
+        <v>1.66666</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>-0.19400000000000001</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>-0.46200000000000002</v>
+      </c>
+      <c r="AD3" s="1">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="AE3" s="1">
+        <v>-6.5000000000000002E-2</v>
+      </c>
+      <c r="AF3" s="1">
+        <v>-0.13300000000000001</v>
+      </c>
+      <c r="AG3" s="1">
+        <v>-0.33300000000000002</v>
+      </c>
+      <c r="AH3" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="AI3" s="1">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="AJ3" s="2">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="AK3" s="2">
+        <v>0.23</v>
+      </c>
+      <c r="AL3" s="2">
+        <v>-0.17199999999999999</v>
+      </c>
+      <c r="AM3" s="2">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="AN3" s="2">
+        <v>0.129</v>
+      </c>
+      <c r="AO3" s="2">
+        <v>0.153</v>
+      </c>
+      <c r="AP3" s="2">
+        <v>-0.215</v>
+      </c>
+      <c r="AQ3" s="2">
+        <v>-2.5999999999999999E-2</v>
+      </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
@@ -641,8 +963,88 @@
       <c r="S4">
         <v>-5.8888800000000003</v>
       </c>
+      <c r="T4">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="V4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="W4">
+        <f t="shared" si="0"/>
+        <v>6.3333300000000001</v>
+      </c>
+      <c r="X4">
+        <f t="shared" si="0"/>
+        <v>2.6666599999999998</v>
+      </c>
+      <c r="Y4">
+        <f t="shared" si="0"/>
+        <v>1.3332999999999999</v>
+      </c>
+      <c r="Z4">
+        <f t="shared" si="0"/>
+        <v>2.8888880000000001</v>
+      </c>
+      <c r="AA4">
+        <f t="shared" si="0"/>
+        <v>5.8888800000000003</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>-0.25</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>0.154</v>
+      </c>
+      <c r="AE4" s="1">
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="AF4" s="1">
+        <v>-0.17399999999999999</v>
+      </c>
+      <c r="AG4" s="1">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="AH4" s="1">
+        <v>0.23</v>
+      </c>
+      <c r="AI4" s="1">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="AJ4" s="2">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="AK4" s="2">
+        <v>-8.5999999999999993E-2</v>
+      </c>
+      <c r="AL4" s="2">
+        <v>-0.115</v>
+      </c>
+      <c r="AM4" s="2">
+        <v>-0.27100000000000002</v>
+      </c>
+      <c r="AN4" s="2">
+        <v>0.154</v>
+      </c>
+      <c r="AO4" s="2">
+        <v>-5.7000000000000002E-2</v>
+      </c>
+      <c r="AP4" s="2">
+        <v>-0.16700000000000001</v>
+      </c>
+      <c r="AQ4" s="2">
+        <v>-0.252</v>
+      </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
@@ -700,8 +1102,88 @@
       <c r="S5">
         <v>12.88888</v>
       </c>
+      <c r="T5">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="0"/>
+        <v>45.5</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="0"/>
+        <v>4.3333300000000001</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="0"/>
+        <v>5.3333000000000004</v>
+      </c>
+      <c r="Y5">
+        <f t="shared" si="0"/>
+        <v>30.33333</v>
+      </c>
+      <c r="Z5">
+        <f t="shared" si="0"/>
+        <v>2.555555</v>
+      </c>
+      <c r="AA5">
+        <f t="shared" si="0"/>
+        <v>12.88888</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>-1.143</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>-1.0169999999999999</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>-0.83899999999999997</v>
+      </c>
+      <c r="AE5" s="1">
+        <v>-0.68700000000000006</v>
+      </c>
+      <c r="AF5" s="1">
+        <v>-0.94099999999999995</v>
+      </c>
+      <c r="AG5" s="1">
+        <v>-0.81599999999999995</v>
+      </c>
+      <c r="AH5" s="1">
+        <v>-0.59699999999999998</v>
+      </c>
+      <c r="AI5" s="1">
+        <v>-0.45300000000000001</v>
+      </c>
+      <c r="AJ5" s="2">
+        <v>1.091</v>
+      </c>
+      <c r="AK5" s="2">
+        <v>1.4370000000000001</v>
+      </c>
+      <c r="AL5" s="2">
+        <v>0.59099999999999997</v>
+      </c>
+      <c r="AM5" s="2">
+        <v>0.72599999999999998</v>
+      </c>
+      <c r="AN5" s="2">
+        <v>0.72699999999999998</v>
+      </c>
+      <c r="AO5" s="2">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="AP5" s="2">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="AQ5" s="2">
+        <v>0.40699999999999997</v>
+      </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
@@ -759,8 +1241,88 @@
       <c r="S6">
         <v>0.111111</v>
       </c>
+      <c r="T6">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="0"/>
+        <v>12.33333</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="0"/>
+        <v>2.3333330000000001</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="0"/>
+        <v>4.6666699999999999</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" si="0"/>
+        <v>6.6666600000000003</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" si="0"/>
+        <v>10.77777</v>
+      </c>
+      <c r="AA6">
+        <f t="shared" si="0"/>
+        <v>0.111111</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>-0.55600000000000005</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>0.73299999999999998</v>
+      </c>
+      <c r="AE6" s="1">
+        <v>-0.16500000000000001</v>
+      </c>
+      <c r="AF6" s="1">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="AG6" s="1">
+        <v>-0.40799999999999997</v>
+      </c>
+      <c r="AH6" s="1">
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="AI6" s="1">
+        <v>-8.9999999999999993E-3</v>
+      </c>
+      <c r="AJ6" s="2">
+        <v>-0.3</v>
+      </c>
+      <c r="AK6" s="2">
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="AL6" s="2">
+        <v>-0.52900000000000003</v>
+      </c>
+      <c r="AM6" s="2">
+        <v>0.111</v>
+      </c>
+      <c r="AN6" s="2">
+        <v>-0.2</v>
+      </c>
+      <c r="AO6" s="2">
+        <v>0.317</v>
+      </c>
+      <c r="AP6" s="2">
+        <v>-0.46200000000000002</v>
+      </c>
+      <c r="AQ6" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
@@ -818,8 +1380,88 @@
       <c r="S7">
         <v>-3.5555500000000002</v>
       </c>
+      <c r="T7">
+        <f t="shared" si="1"/>
+        <v>5.5</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="0"/>
+        <v>1.3333299999999999</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="0"/>
+        <v>0.66666599999999998</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="0"/>
+        <v>3.6666599999999998</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" si="0"/>
+        <v>8.6666659999999993</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" si="0"/>
+        <v>2.555555</v>
+      </c>
+      <c r="AA7">
+        <f t="shared" si="0"/>
+        <v>3.5555500000000002</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>-0.31</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>-0.377</v>
+      </c>
+      <c r="AD7" s="1">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="AE7" s="1">
+        <v>2.4E-2</v>
+      </c>
+      <c r="AF7" s="1">
+        <v>-0.218</v>
+      </c>
+      <c r="AG7" s="1">
+        <v>-0.26800000000000002</v>
+      </c>
+      <c r="AH7" s="1">
+        <v>0.186</v>
+      </c>
+      <c r="AI7" s="1">
+        <v>-136</v>
+      </c>
+      <c r="AJ7" s="2">
+        <v>0.154</v>
+      </c>
+      <c r="AK7" s="2">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="AL7" s="2">
+        <v>-3.6999999999999998E-2</v>
+      </c>
+      <c r="AM7" s="2">
+        <v>-1.9E-2</v>
+      </c>
+      <c r="AN7" s="2">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="AO7" s="2">
+        <v>0.245</v>
+      </c>
+      <c r="AP7" s="2">
+        <v>-7.1999999999999995E-2</v>
+      </c>
+      <c r="AQ7" s="2">
+        <v>-0.10100000000000001</v>
+      </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
@@ -877,8 +1519,88 @@
       <c r="S8">
         <v>-13.33333</v>
       </c>
+      <c r="T8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="0"/>
+        <v>8.3333329999999997</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="0"/>
+        <v>13.33333</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <f t="shared" si="0"/>
+        <v>8.3333300000000001</v>
+      </c>
+      <c r="AA8">
+        <f t="shared" si="0"/>
+        <v>13.33333</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="AE8" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="AF8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="AI8" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="AJ8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="2">
+        <v>-0.30499999999999999</v>
+      </c>
+      <c r="AM8" s="2">
+        <v>-0.48799999999999999</v>
+      </c>
+      <c r="AN8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP8" s="2">
+        <v>-0.30499999999999999</v>
+      </c>
+      <c r="AQ8" s="2">
+        <v>-0.48799999999999999</v>
+      </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9</v>
       </c>
@@ -936,8 +1658,88 @@
       <c r="S9">
         <v>-21.66666</v>
       </c>
+      <c r="T9">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="0"/>
+        <v>23.33333</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="0"/>
+        <v>0.33333000000000002</v>
+      </c>
+      <c r="Y9">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="Z9">
+        <f t="shared" si="0"/>
+        <v>8.1111000000000004</v>
+      </c>
+      <c r="AA9">
+        <f t="shared" si="0"/>
+        <v>21.66666</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>-0.02</v>
+      </c>
+      <c r="AC9" s="1">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="AD9" s="1">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="AE9" s="1">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="AF9" s="1">
+        <v>-1.2999999999999999E-2</v>
+      </c>
+      <c r="AG9" s="1">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="AH9" s="1">
+        <v>0.38700000000000001</v>
+      </c>
+      <c r="AI9" s="1">
+        <v>0.49099999999999999</v>
+      </c>
+      <c r="AJ9" s="2">
+        <v>1.6E-2</v>
+      </c>
+      <c r="AK9" s="2">
+        <v>-0.16900000000000001</v>
+      </c>
+      <c r="AL9" s="2">
+        <v>-0.255</v>
+      </c>
+      <c r="AM9" s="2">
+        <v>-0.52600000000000002</v>
+      </c>
+      <c r="AN9" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="AO9" s="2">
+        <v>-0.11</v>
+      </c>
+      <c r="AP9" s="2">
+        <v>-0.25900000000000001</v>
+      </c>
+      <c r="AQ9" s="2">
+        <v>-0.48899999999999999</v>
+      </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10</v>
       </c>
@@ -994,6 +1796,86 @@
       </c>
       <c r="S10">
         <v>-9.4444440000000007</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="0"/>
+        <v>8.3333300000000001</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <f t="shared" si="0"/>
+        <v>3.3333333000000001</v>
+      </c>
+      <c r="Z10">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="AA10">
+        <f t="shared" si="0"/>
+        <v>9.4444440000000007</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="1">
+        <v>-0.13300000000000001</v>
+      </c>
+      <c r="AD10" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="AE10" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="AF10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="1">
+        <v>-9.0999999999999998E-2</v>
+      </c>
+      <c r="AH10" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="AI10" s="1">
+        <v>0.312</v>
+      </c>
+      <c r="AJ10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="2">
+        <v>0.183</v>
+      </c>
+      <c r="AL10" s="2">
+        <v>-0.26100000000000001</v>
+      </c>
+      <c r="AM10" s="2">
+        <v>-0.30499999999999999</v>
+      </c>
+      <c r="AN10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO10" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="AP10" s="2">
+        <v>-0.26100000000000001</v>
+      </c>
+      <c r="AQ10" s="2">
+        <v>-0.34599999999999997</v>
       </c>
     </row>
   </sheetData>
